--- a/data/trans_orig/P41E_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>17644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11710</v>
+        <v>11740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26096</v>
+        <v>25768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05728097813711624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03801538015124846</v>
+        <v>0.03811228818878746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08471904703558476</v>
+        <v>0.08365347360298886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -762,19 +762,19 @@
         <v>15544</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10352</v>
+        <v>10296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22253</v>
+        <v>22843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06498983777980037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04328029334229687</v>
+        <v>0.04304823957416534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09303911673032572</v>
+        <v>0.09550543426965762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -783,19 +783,19 @@
         <v>33188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24671</v>
+        <v>25475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42934</v>
+        <v>43044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06065043794126004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04508573927065584</v>
+        <v>0.0465546368188231</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07845907096203107</v>
+        <v>0.07866179308811307</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>290386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281934</v>
+        <v>282262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296320</v>
+        <v>296290</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9427190218628837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9152809529644153</v>
+        <v>0.9163465263970112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9619846198487513</v>
+        <v>0.9618877118112127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -833,19 +833,19 @@
         <v>223635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216926</v>
+        <v>216336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228827</v>
+        <v>228883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9350101622201996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9069608832696744</v>
+        <v>0.9044945657303425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9567197066577031</v>
+        <v>0.9569517604258347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>617</v>
@@ -854,19 +854,19 @@
         <v>514021</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504275</v>
+        <v>504165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>522538</v>
+        <v>521734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9393495620587401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.921540929037969</v>
+        <v>0.9213382069118869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.954914260729344</v>
+        <v>0.9534453631811768</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18645</v>
+        <v>18251</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36060</v>
+        <v>36150</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1048669665239418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07402626467324507</v>
+        <v>0.07246292149494653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1431698428311493</v>
+        <v>0.143528912212778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -979,19 +979,19 @@
         <v>13778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8501</v>
+        <v>8665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20501</v>
+        <v>21111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0654653908257317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04038919522142358</v>
+        <v>0.04116869861834047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09740700214996478</v>
+        <v>0.1003061247188736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -1000,19 +1000,19 @@
         <v>40191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30773</v>
+        <v>29970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51215</v>
+        <v>51866</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08693027094434867</v>
+        <v>0.08693027094434866</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06656081054749449</v>
+        <v>0.06482301323296635</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1107747902266311</v>
+        <v>0.1121832585155716</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>225454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215807</v>
+        <v>215717</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233222</v>
+        <v>233616</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8951330334760582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8568301571688505</v>
+        <v>0.8564710877872218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9259737353267546</v>
+        <v>0.9275370785050535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -1050,19 +1050,19 @@
         <v>196690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189967</v>
+        <v>189357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201967</v>
+        <v>201803</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9345346091742683</v>
+        <v>0.9345346091742682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9025929978500352</v>
+        <v>0.8996938752811264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9596108047785763</v>
+        <v>0.9588313013816596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>505</v>
@@ -1071,19 +1071,19 @@
         <v>422144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>411120</v>
+        <v>410469</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>431562</v>
+        <v>432365</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9130697290556513</v>
+        <v>0.9130697290556512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8892252097733689</v>
+        <v>0.8878167414844284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9334391894525058</v>
+        <v>0.9351769867670336</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>33611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25127</v>
+        <v>24648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44976</v>
+        <v>43548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1339583302835971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1001442338367621</v>
+        <v>0.09823785030742729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1792576446866106</v>
+        <v>0.173562873294511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1196,19 +1196,19 @@
         <v>15922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10685</v>
+        <v>10793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22769</v>
+        <v>22216</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1774094341801873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.119052384864357</v>
+        <v>0.1202542460426566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2536981392088663</v>
+        <v>0.2475374322055882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -1217,19 +1217,19 @@
         <v>49533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39168</v>
+        <v>39008</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60909</v>
+        <v>62018</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1454059971552533</v>
+        <v>0.1454059971552532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1149783517990189</v>
+        <v>0.1145104988386913</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1788008679826387</v>
+        <v>0.1820580881991235</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>217293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205928</v>
+        <v>207356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225777</v>
+        <v>226256</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.866041669716403</v>
+        <v>0.8660416697164028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8207423553133893</v>
+        <v>0.826437126705489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8998557661632378</v>
+        <v>0.9017621496925732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -1267,19 +1267,19 @@
         <v>73827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66980</v>
+        <v>67533</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79064</v>
+        <v>78956</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8225905658198128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7463018607911339</v>
+        <v>0.7524625677944117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8809476151356429</v>
+        <v>0.8797457539573433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>328</v>
@@ -1288,19 +1288,19 @@
         <v>291119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>279743</v>
+        <v>278634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>301484</v>
+        <v>301644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8545940028447466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8211991320173613</v>
+        <v>0.8179419118008768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8850216482009812</v>
+        <v>0.8854895011613088</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>64955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53066</v>
+        <v>52127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79586</v>
+        <v>79160</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.124865862164672</v>
+        <v>0.1248658621646719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1020105876687697</v>
+        <v>0.1002051404991067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1529896409150453</v>
+        <v>0.1521719682502808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1413,19 +1413,19 @@
         <v>29740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22343</v>
+        <v>21407</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39464</v>
+        <v>39121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07516371443638944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05646982338017462</v>
+        <v>0.05410378128497557</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09974042777399499</v>
+        <v>0.09887207507233989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -1434,19 +1434,19 @@
         <v>94695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79717</v>
+        <v>79940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111303</v>
+        <v>111554</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1033938089193908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08703913509503697</v>
+        <v>0.08728301157248476</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1215270345192528</v>
+        <v>0.121801370343302</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>455247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>440616</v>
+        <v>441042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>467136</v>
+        <v>468075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.875134137835328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8470103590849548</v>
+        <v>0.8478280317497193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8979894123312304</v>
+        <v>0.8997948595008936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>528</v>
@@ -1484,19 +1484,19 @@
         <v>365930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356206</v>
+        <v>356549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373327</v>
+        <v>374263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9248362855636104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9002595722260049</v>
+        <v>0.9011279249276601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9435301766198255</v>
+        <v>0.9458962187150244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>988</v>
@@ -1505,19 +1505,19 @@
         <v>821177</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>804569</v>
+        <v>804318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>836155</v>
+        <v>835932</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8966061910806092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8784729654807473</v>
+        <v>0.8781986296566975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.912960864904963</v>
+        <v>0.9127169884275148</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>37335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28250</v>
+        <v>28595</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47322</v>
+        <v>48347</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1466962055783028</v>
+        <v>0.1466962055783029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1109999693953434</v>
+        <v>0.112353526648565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1859362774085775</v>
+        <v>0.1899647299332851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -1630,19 +1630,19 @@
         <v>66193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55999</v>
+        <v>56335</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79724</v>
+        <v>78766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1758805005442077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1487948100525568</v>
+        <v>0.1496882024707019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2118347348548432</v>
+        <v>0.2092869136030697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -1651,19 +1651,19 @@
         <v>103528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89641</v>
+        <v>88870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118818</v>
+        <v>120057</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1641067438444452</v>
+        <v>0.1641067438444451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.142093193404033</v>
+        <v>0.1408711584575901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1883429571270533</v>
+        <v>0.1903078790591654</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>217171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207184</v>
+        <v>206159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>226256</v>
+        <v>225911</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.853303794421697</v>
+        <v>0.8533037944216971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8140637225914221</v>
+        <v>0.8100352700667143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8890000306046567</v>
+        <v>0.8876464733514347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>468</v>
@@ -1701,19 +1701,19 @@
         <v>310159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>296628</v>
+        <v>297586</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>320353</v>
+        <v>320017</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8241194994557922</v>
+        <v>0.8241194994557921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7881652651451566</v>
+        <v>0.7907130863969301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8512051899474431</v>
+        <v>0.8503117975292982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>671</v>
@@ -1722,19 +1722,19 @@
         <v>527330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>512040</v>
+        <v>510801</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>541217</v>
+        <v>541988</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8358932561555548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8116570428729466</v>
+        <v>0.809692120940835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8579068065959672</v>
+        <v>0.8591288415424099</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>5214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1439</v>
+        <v>1465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12669</v>
+        <v>13210</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1149798754116802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03172074563701278</v>
+        <v>0.03231214608108571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2793591310381326</v>
+        <v>0.2912986347952768</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -1847,19 +1847,19 @@
         <v>59461</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48512</v>
+        <v>48928</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72235</v>
+        <v>71442</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2126931969673287</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1735294408064168</v>
+        <v>0.1750170162022955</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2583879651904676</v>
+        <v>0.2555503391240983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1868,19 +1868,19 @@
         <v>64675</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51992</v>
+        <v>53450</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78410</v>
+        <v>79398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1990550854482069</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.160019043429445</v>
+        <v>0.1645050558577902</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2413269880773454</v>
+        <v>0.244368074006767</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>40135</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32680</v>
+        <v>32139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43910</v>
+        <v>43884</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8850201245883199</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7206408689618673</v>
+        <v>0.7087013652047232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9682792543629872</v>
+        <v>0.9676878539189143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>323</v>
@@ -1918,19 +1918,19 @@
         <v>220101</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>207327</v>
+        <v>208120</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>231050</v>
+        <v>230634</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7873068030326714</v>
+        <v>0.7873068030326713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7416120348095323</v>
+        <v>0.7444496608759018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8264705591935831</v>
+        <v>0.8249829837977045</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -1939,19 +1939,19 @@
         <v>260236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246501</v>
+        <v>245513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>272919</v>
+        <v>271461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8009449145517932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7586730119226545</v>
+        <v>0.7556319259932327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8399809565705549</v>
+        <v>0.8354949441422097</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>185172</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>165451</v>
+        <v>161968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210564</v>
+        <v>208639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1135428158525159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1014502010353108</v>
+        <v>0.09931467934456968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1291125763546268</v>
+        <v>0.1279321216420838</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>334</v>
@@ -2064,19 +2064,19 @@
         <v>200639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>182488</v>
+        <v>180389</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>223209</v>
+        <v>224821</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1261102327993692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1147018287518459</v>
+        <v>0.1133824890185337</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1402962897022807</v>
+        <v>0.1413098704685243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>586</v>
@@ -2085,19 +2085,19 @@
         <v>385811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>357367</v>
+        <v>356938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>418559</v>
+        <v>419530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1197487505210938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1109203042469175</v>
+        <v>0.1107872100912877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1299130497443357</v>
+        <v>0.1302146653007559</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>1445685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1420293</v>
+        <v>1422218</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1465406</v>
+        <v>1468889</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.886457184147484</v>
+        <v>0.8864571841474841</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8708874236453733</v>
+        <v>0.8720678783579162</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8985497989646892</v>
+        <v>0.9006853206554303</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2035</v>
@@ -2135,19 +2135,19 @@
         <v>1390341</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1367771</v>
+        <v>1366159</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1408492</v>
+        <v>1410591</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8738897672006307</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8597037102977193</v>
+        <v>0.8586901295314756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.885298171248154</v>
+        <v>0.8866175109814659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3457</v>
@@ -2156,19 +2156,19 @@
         <v>2836026</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2803278</v>
+        <v>2802307</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2864470</v>
+        <v>2864899</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8802512494789063</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8700869502556641</v>
+        <v>0.8697853346992441</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8890796957530824</v>
+        <v>0.8892127899087124</v>
       </c>
     </row>
     <row r="24">
